--- a/Plantillas/Bitacora .xlsx
+++ b/Plantillas/Bitacora .xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famil\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Desktop\METODOS FORMALES\METFOR\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8655" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>FECHA</t>
   </si>
   <si>
-    <t>CUADERNO DE TRABAJO</t>
-  </si>
-  <si>
     <t>Codigo</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>NIVEL:</t>
+  </si>
+  <si>
+    <t>BITACORA DE REGISTRO DE TIEMPOS</t>
   </si>
 </sst>
 </file>
@@ -427,13 +427,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -442,28 +441,29 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +879,7 @@
     <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -905,61 +905,61 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="F14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="G14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="H14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="I14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="J14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="16" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="17"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -967,10 +967,10 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -978,10 +978,10 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -989,10 +989,10 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1000,10 +1000,10 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1022,10 +1022,10 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1033,10 +1033,10 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -1044,10 +1044,10 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -1055,10 +1055,10 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -1066,10 +1066,10 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
       <c r="J26" s="8"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -1077,10 +1077,10 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -1088,10 +1088,10 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
       <c r="J28" s="8"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -1099,10 +1099,10 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -1110,10 +1110,10 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -1121,10 +1121,10 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -1132,10 +1132,10 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -1143,10 +1143,10 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -1154,10 +1154,10 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -1165,10 +1165,10 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
@@ -1176,10 +1176,10 @@
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -1187,10 +1187,10 @@
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
@@ -1209,10 +1209,10 @@
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
@@ -1220,10 +1220,10 @@
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -1231,10 +1231,10 @@
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
       <c r="J41" s="8"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
@@ -1242,10 +1242,10 @@
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
       <c r="J42" s="8"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -1253,10 +1253,10 @@
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
@@ -1264,10 +1264,10 @@
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -1275,10 +1275,10 @@
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -1286,10 +1286,10 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -1297,10 +1297,10 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -1308,10 +1308,10 @@
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
       <c r="J48" s="8"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
@@ -1319,10 +1319,10 @@
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -1330,10 +1330,10 @@
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
@@ -1341,10 +1341,10 @@
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
       <c r="J51" s="8"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
@@ -1352,10 +1352,10 @@
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
       <c r="J52" s="8"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
@@ -1363,10 +1363,10 @@
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
       <c r="J53" s="8"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
@@ -1374,10 +1374,10 @@
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
       <c r="J54" s="8"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
@@ -1385,10 +1385,10 @@
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
       <c r="J55" s="8"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
@@ -1396,10 +1396,10 @@
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
       <c r="J56" s="8"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
@@ -1407,10 +1407,10 @@
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
       <c r="J57" s="8"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
@@ -1418,10 +1418,10 @@
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1429,10 +1429,10 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
       <c r="J59" s="10"/>
     </row>
   </sheetData>
@@ -1470,183 +1470,183 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="B8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="B14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
+      <c r="B20" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -1754,135 +1754,135 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="22" t="s">
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="23" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
